--- a/Data/F022.PCCVP.FLA.Z.Z.USD.D.xlsx
+++ b/Data/F022.PCCVP.FLA.Z.Z.USD.D.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C496"/>
+  <dimension ref="A1:C499"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8798,6 +8798,57 @@
         </is>
       </c>
     </row>
+    <row r="497">
+      <c r="A497" t="inlineStr">
+        <is>
+          <t>11-12-2021</t>
+        </is>
+      </c>
+      <c r="B497" t="inlineStr">
+        <is>
+          <t>17537.4552880924</t>
+        </is>
+      </c>
+      <c r="C497" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="inlineStr">
+        <is>
+          <t>12-12-2021</t>
+        </is>
+      </c>
+      <c r="B498" t="inlineStr">
+        <is>
+          <t>17537.4552880924</t>
+        </is>
+      </c>
+      <c r="C498" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="inlineStr">
+        <is>
+          <t>13-12-2021</t>
+        </is>
+      </c>
+      <c r="B499" t="inlineStr">
+        <is>
+          <t>17537.4552880924</t>
+        </is>
+      </c>
+      <c r="C499" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Data/F022.PCCVP.FLA.Z.Z.USD.D.xlsx
+++ b/Data/F022.PCCVP.FLA.Z.Z.USD.D.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C499"/>
+  <dimension ref="A1:C500"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8849,6 +8849,23 @@
         </is>
       </c>
     </row>
+    <row r="500">
+      <c r="A500" t="inlineStr">
+        <is>
+          <t>14-12-2021</t>
+        </is>
+      </c>
+      <c r="B500" t="inlineStr">
+        <is>
+          <t>17537.4552880924</t>
+        </is>
+      </c>
+      <c r="C500" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Data/F022.PCCVP.FLA.Z.Z.USD.D.xlsx
+++ b/Data/F022.PCCVP.FLA.Z.Z.USD.D.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C500"/>
+  <dimension ref="A1:C501"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8866,6 +8866,23 @@
         </is>
       </c>
     </row>
+    <row r="501">
+      <c r="A501" t="inlineStr">
+        <is>
+          <t>15-12-2021</t>
+        </is>
+      </c>
+      <c r="B501" t="inlineStr">
+        <is>
+          <t>17537.4552880924</t>
+        </is>
+      </c>
+      <c r="C501" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Data/F022.PCCVP.FLA.Z.Z.USD.D.xlsx
+++ b/Data/F022.PCCVP.FLA.Z.Z.USD.D.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C501"/>
+  <dimension ref="A1:C502"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8883,6 +8883,23 @@
         </is>
       </c>
     </row>
+    <row r="502">
+      <c r="A502" t="inlineStr">
+        <is>
+          <t>16-12-2021</t>
+        </is>
+      </c>
+      <c r="B502" t="inlineStr">
+        <is>
+          <t>17537.4552880924</t>
+        </is>
+      </c>
+      <c r="C502" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Data/F022.PCCVP.FLA.Z.Z.USD.D.xlsx
+++ b/Data/F022.PCCVP.FLA.Z.Z.USD.D.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C502"/>
+  <dimension ref="A1:C503"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8900,6 +8900,23 @@
         </is>
       </c>
     </row>
+    <row r="503">
+      <c r="A503" t="inlineStr">
+        <is>
+          <t>17-12-2021</t>
+        </is>
+      </c>
+      <c r="B503" t="inlineStr">
+        <is>
+          <t>17537.4552880924</t>
+        </is>
+      </c>
+      <c r="C503" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Data/F022.PCCVP.FLA.Z.Z.USD.D.xlsx
+++ b/Data/F022.PCCVP.FLA.Z.Z.USD.D.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C503"/>
+  <dimension ref="A1:C506"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8917,6 +8917,57 @@
         </is>
       </c>
     </row>
+    <row r="504">
+      <c r="A504" t="inlineStr">
+        <is>
+          <t>18-12-2021</t>
+        </is>
+      </c>
+      <c r="B504" t="inlineStr">
+        <is>
+          <t>17537.4552880924</t>
+        </is>
+      </c>
+      <c r="C504" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="inlineStr">
+        <is>
+          <t>19-12-2021</t>
+        </is>
+      </c>
+      <c r="B505" t="inlineStr">
+        <is>
+          <t>17537.4552880924</t>
+        </is>
+      </c>
+      <c r="C505" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="inlineStr">
+        <is>
+          <t>20-12-2021</t>
+        </is>
+      </c>
+      <c r="B506" t="inlineStr">
+        <is>
+          <t>17537.4552880924</t>
+        </is>
+      </c>
+      <c r="C506" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Data/F022.PCCVP.FLA.Z.Z.USD.D.xlsx
+++ b/Data/F022.PCCVP.FLA.Z.Z.USD.D.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C506"/>
+  <dimension ref="A1:C507"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8968,6 +8968,23 @@
         </is>
       </c>
     </row>
+    <row r="507">
+      <c r="A507" t="inlineStr">
+        <is>
+          <t>21-12-2021</t>
+        </is>
+      </c>
+      <c r="B507" t="inlineStr">
+        <is>
+          <t>17537.4552880924</t>
+        </is>
+      </c>
+      <c r="C507" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Data/F022.PCCVP.FLA.Z.Z.USD.D.xlsx
+++ b/Data/F022.PCCVP.FLA.Z.Z.USD.D.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C507"/>
+  <dimension ref="A1:C508"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8985,6 +8985,23 @@
         </is>
       </c>
     </row>
+    <row r="508">
+      <c r="A508" t="inlineStr">
+        <is>
+          <t>22-12-2021</t>
+        </is>
+      </c>
+      <c r="B508" t="inlineStr">
+        <is>
+          <t>17537.4552880924</t>
+        </is>
+      </c>
+      <c r="C508" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Data/F022.PCCVP.FLA.Z.Z.USD.D.xlsx
+++ b/Data/F022.PCCVP.FLA.Z.Z.USD.D.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C508"/>
+  <dimension ref="A1:C509"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9002,6 +9002,23 @@
         </is>
       </c>
     </row>
+    <row r="509">
+      <c r="A509" t="inlineStr">
+        <is>
+          <t>23-12-2021</t>
+        </is>
+      </c>
+      <c r="B509" t="inlineStr">
+        <is>
+          <t>17537.4552880924</t>
+        </is>
+      </c>
+      <c r="C509" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Data/F022.PCCVP.FLA.Z.Z.USD.D.xlsx
+++ b/Data/F022.PCCVP.FLA.Z.Z.USD.D.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C509"/>
+  <dimension ref="A1:C510"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9019,6 +9019,23 @@
         </is>
       </c>
     </row>
+    <row r="510">
+      <c r="A510" t="inlineStr">
+        <is>
+          <t>24-12-2021</t>
+        </is>
+      </c>
+      <c r="B510" t="inlineStr">
+        <is>
+          <t>17537.4552880924</t>
+        </is>
+      </c>
+      <c r="C510" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
